--- a/data/trans_bre/P17_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P17_R2-Dificultad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.1573277403265253</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4481748464894471</v>
+        <v>0.4481748464894469</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2125292960614114</v>
+        <v>0.07523595453581362</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9045772351165469</v>
+        <v>0.9266375512343347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1881226123048058</v>
+        <v>-0.8064772059132924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8175030543637524</v>
+        <v>0.8723373957741892</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009459859443239968</v>
+        <v>0.004276143478800637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03107359334782327</v>
+        <v>0.03105128722640268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.008401555286861153</v>
+        <v>-0.03446863951616843</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.04950722816279748</v>
+        <v>0.05111212335463024</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.012546038535733</v>
+        <v>8.512895638973291</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.03808123712505</v>
+        <v>8.800390543952618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.553776563121662</v>
+        <v>6.332723372568176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.235872909082762</v>
+        <v>9.476198245292696</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5754627858077808</v>
+        <v>0.5345248552187639</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3885503306745197</v>
+        <v>0.3757760786616315</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3752002607650553</v>
+        <v>0.3697576609478724</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.006444168509853</v>
+        <v>1.031818614421212</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.623422365353452</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.462521188812167</v>
+        <v>5.462521188812169</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5499957249001133</v>
@@ -749,7 +749,7 @@
         <v>0.2602671960332935</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3713465517675628</v>
+        <v>0.371346551767563</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.021262396080383</v>
+        <v>8.578799920199781</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6821427997440865</v>
+        <v>1.018054143479505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6184774473846393</v>
+        <v>1.088340893079713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.99546983704393</v>
+        <v>2.280405452666149</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3371757317718349</v>
+        <v>0.3605361413319064</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02213456749209653</v>
+        <v>0.03367209648310901</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03382554849946271</v>
+        <v>0.05434652846648906</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1195972919957903</v>
+        <v>0.126753869544063</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.17024303461654</v>
+        <v>15.7066272822918</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.126311915032971</v>
+        <v>8.773660215856452</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.224499785847415</v>
+        <v>8.218521638656741</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.775567429131307</v>
+        <v>9.183445902603218</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7985433857306222</v>
+        <v>0.7772964919146074</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3562659444309345</v>
+        <v>0.3491917389529061</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5194789809740274</v>
+        <v>0.519483809748586</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6841499080349147</v>
+        <v>0.7398339655432621</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.620516612447027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.005358811380919</v>
+        <v>5.005358811380923</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2415680548651385</v>
@@ -849,7 +849,7 @@
         <v>0.3694087102598003</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3238495527895525</v>
+        <v>0.3238495527895528</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.441078134948067</v>
+        <v>1.991587096350616</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.551025511564452</v>
+        <v>6.650028349872353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.548044307755499</v>
+        <v>1.602146263086272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.660620583889721</v>
+        <v>1.606246625489559</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09099675741648701</v>
+        <v>0.07369231918345999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2738999607510766</v>
+        <v>0.2796292426378577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08551847084876807</v>
+        <v>0.09323710691238281</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.09581902794336086</v>
+        <v>0.09002984646427657</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.13422824283695</v>
+        <v>10.26858276049882</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.07777177370692</v>
+        <v>15.14099796545679</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.412910823943418</v>
+        <v>9.566250530290974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.429488503586187</v>
+        <v>8.548108081544923</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4201342312771488</v>
+        <v>0.4243651684697276</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7863186772468477</v>
+        <v>0.791416714514464</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7061292596472407</v>
+        <v>0.7069874606749754</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6488065141564712</v>
+        <v>0.6478011278141186</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.363514275290445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.002332581598788</v>
+        <v>6.002332581598785</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3612920862067558</v>
@@ -949,7 +949,7 @@
         <v>0.3800796263120407</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3751210382097567</v>
+        <v>0.3751210382097565</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.272959260122016</v>
+        <v>3.125549213302201</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.584896804702897</v>
+        <v>8.746540586893396</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.643223688933191</v>
+        <v>3.012528176016182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.389533385025403</v>
+        <v>2.036229526456927</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1078380892383088</v>
+        <v>0.1041837713528953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2746839520174268</v>
+        <v>0.2834222961650759</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1037169532456282</v>
+        <v>0.1156452761063741</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1295229867389907</v>
+        <v>0.1107179212714092</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.71486204975461</v>
+        <v>16.64082278376723</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.36128338409878</v>
+        <v>21.24954107757485</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.79207541007124</v>
+        <v>14.26218793485421</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.375760451525437</v>
+        <v>9.644289374651777</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6801532287650575</v>
+        <v>0.6748798404295707</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8828323021532549</v>
+        <v>0.9029428931725414</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7673041098485588</v>
+        <v>0.7584627466759007</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6591421977360625</v>
+        <v>0.685232514476697</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.82520714511773</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.277182511173581</v>
+        <v>5.277182511173578</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3085435751047554</v>
@@ -1049,7 +1049,7 @@
         <v>0.2644971591832186</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3555476122753422</v>
+        <v>0.3555476122753419</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.904147025666314</v>
+        <v>5.158905024707139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.762559956401495</v>
+        <v>5.358177540750358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.793852452370289</v>
+        <v>2.903171746019999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.38048710281549</v>
+        <v>3.4230724366506</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1959652831325061</v>
+        <v>0.2088680030143933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2183326974719164</v>
+        <v>0.1987896501581632</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1417995739673289</v>
+        <v>0.1503247713538299</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2108632306120293</v>
+        <v>0.2172570706745383</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.479819140197126</v>
+        <v>9.453773661044856</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.25560018377243</v>
+        <v>9.999992674232049</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.715894554139281</v>
+        <v>6.734878973367249</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.025932454908045</v>
+        <v>7.132764189716894</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.413641319192348</v>
+        <v>0.4204526184631742</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4215017650329427</v>
+        <v>0.4123875131277229</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3865193611879748</v>
+        <v>0.3952312860832426</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5066447283165629</v>
+        <v>0.5216763420772504</v>
       </c>
     </row>
     <row r="19">
